--- a/evaluations/GPT/2025-03-31_103806/snake/random_02/evaluation.xlsx
+++ b/evaluations/GPT/2025-03-31_103806/snake/random_02/evaluation.xlsx
@@ -748,10 +748,7 @@
     <row r="27">
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="3">
-        <f>SUM(E2:E26)</f>
-        <v>24</v>
-      </c>
+      <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
   </sheetData>
